--- a/output/fit_clients/fit_round_169.xlsx
+++ b/output/fit_clients/fit_round_169.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1895845480.258829</v>
+        <v>2284781147.561576</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09069890525474864</v>
+        <v>0.1019902746855989</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04152761143291064</v>
+        <v>0.03311793049780532</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>947922721.7098439</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1776263530.650972</v>
+        <v>2290334274.453735</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1841750960621939</v>
+        <v>0.1364766066502127</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0417581402440911</v>
+        <v>0.03096958270232533</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>888131770.7021798</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5041546462.743988</v>
+        <v>5181920363.152966</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1537244861558065</v>
+        <v>0.1272954787640847</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02620867216363105</v>
+        <v>0.02726009347020877</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>61</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2520773319.300556</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3352658233.458148</v>
+        <v>2810409752.776396</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1021647754470859</v>
+        <v>0.07882642801113686</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03754991716071085</v>
+        <v>0.04567902940276559</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>65</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1676329163.190688</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2865485976.550547</v>
+        <v>1772097828.558896</v>
       </c>
       <c r="F6" t="n">
-        <v>0.119509295104416</v>
+        <v>0.1342594194662187</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03932940520126708</v>
+        <v>0.05306803291876034</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>25</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1432742924.159989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2709968680.363035</v>
+        <v>2662387697.029779</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09615223641223455</v>
+        <v>0.06656415288038423</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03073050595875195</v>
+        <v>0.03147007371704352</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>53</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1354984333.016147</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2650962994.401998</v>
+        <v>2989358168.915196</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2071068172282811</v>
+        <v>0.149541634974735</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02617463256652367</v>
+        <v>0.02344451427264311</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>54</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1325481519.011058</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1632335020.834187</v>
+        <v>1413548568.029722</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1265899101191523</v>
+        <v>0.1271977281780479</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02609920645789858</v>
+        <v>0.02717659979773458</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>816167588.0154604</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5263821065.376595</v>
+        <v>4474542510.441905</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1984874191903915</v>
+        <v>0.1663658058483911</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04130967694727171</v>
+        <v>0.0427611976083989</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>71</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2631910652.421574</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3232997203.863734</v>
+        <v>3641063056.361162</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1216911026687352</v>
+        <v>0.1264543989884168</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04306675993471805</v>
+        <v>0.03007792543243037</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>69</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1616498561.063999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2100168206.370222</v>
+        <v>2825702251.223386</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1969458399415639</v>
+        <v>0.136703547780548</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03316604492746501</v>
+        <v>0.04084417703393611</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>59</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1050084038.76854</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5337057233.775029</v>
+        <v>4292860610.714452</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09128703616274661</v>
+        <v>0.06427128792160987</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02672669939025164</v>
+        <v>0.02330761470593711</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>56</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2668528603.858749</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2765460688.493927</v>
+        <v>2546782042.82181</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1374792419302686</v>
+        <v>0.1580035203082912</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0398990935271453</v>
+        <v>0.02727925290006574</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>54</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1382730395.629908</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1301829230.145732</v>
+        <v>1582137600.759701</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07793311439807117</v>
+        <v>0.07089874092379909</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03007698740332848</v>
+        <v>0.04483997415153875</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>650914655.6147594</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2887368618.208095</v>
+        <v>2026059712.471869</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1055881580175348</v>
+        <v>0.1087393801907267</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03125000047019632</v>
+        <v>0.04113841309234877</v>
       </c>
       <c r="H16" t="b">
         <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>25</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1443684305.269319</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4993767613.472417</v>
+        <v>3664441014.832132</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1355611776213011</v>
+        <v>0.1411378654902926</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04273420104318217</v>
+        <v>0.04681921217478214</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>49</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2496883792.206961</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3013138606.707724</v>
+        <v>2567153995.636005</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1703357144276024</v>
+        <v>0.1690606861808208</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02727310153607685</v>
+        <v>0.02116206500433733</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>56</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1506569332.59292</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1124300783.12554</v>
+        <v>868722238.6492276</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1586131587665005</v>
+        <v>0.1387363291753201</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01873003043970021</v>
+        <v>0.02305589102575857</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>562150451.0305269</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2748895726.96609</v>
+        <v>1743739961.929096</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1617799433547472</v>
+        <v>0.1024814397905271</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02016460545864411</v>
+        <v>0.01931107568436596</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>27</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1374447810.036857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2145283019.585337</v>
+        <v>2335410831.085093</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09638503152463881</v>
+        <v>0.08704131715042207</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04382433082097054</v>
+        <v>0.04114425631144151</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1072641531.794939</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3490374773.351936</v>
+        <v>3981182250.108034</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1436857913351786</v>
+        <v>0.1376684684604319</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05697107219958576</v>
+        <v>0.05270442908501909</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>46</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1745187418.808133</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1353275827.58799</v>
+        <v>1088801420.0097</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1842936438625847</v>
+        <v>0.1532195493672461</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03864177715940929</v>
+        <v>0.04915591757143198</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>676637924.4175867</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2746972034.521132</v>
+        <v>3755670821.987875</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1216597341612255</v>
+        <v>0.1072423946926833</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0233070494514059</v>
+        <v>0.02331780342416334</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>51</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1373486069.482033</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1337273255.894597</v>
+        <v>1166185316.688207</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1023434965640553</v>
+        <v>0.1007773632130181</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02761949328380854</v>
+        <v>0.01863317115243929</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>668636614.3050129</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1263267231.145398</v>
+        <v>1269354693.48305</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1090495094486841</v>
+        <v>0.08698966329390891</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03739574019932917</v>
+        <v>0.02835975571879788</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>631633652.0351025</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2913742691.926676</v>
+        <v>3972769676.375139</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1051492148538464</v>
+        <v>0.1270135616963392</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02401358851693168</v>
+        <v>0.02355626261564848</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>39</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1456871410.071764</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2958061922.812251</v>
+        <v>3173328574.211412</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1075089053197075</v>
+        <v>0.1353711769215619</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04174996191564949</v>
+        <v>0.04635995114022268</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>55</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1479030968.95424</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3605681764.81877</v>
+        <v>4458476612.980094</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1271417199436061</v>
+        <v>0.1358490580416457</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04302916046121186</v>
+        <v>0.02997603745681345</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>77</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1802840926.599364</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1905086912.549852</v>
+        <v>2354161100.285386</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09812035800360371</v>
+        <v>0.1290944956085434</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02688463762537369</v>
+        <v>0.03044452114662754</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>952543482.8806003</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1091150516.716925</v>
+        <v>1328337926.386436</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08427497557040985</v>
+        <v>0.08740928491975837</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04356422344000725</v>
+        <v>0.05215184924997116</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>545575235.4114254</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1883190939.598048</v>
+        <v>1396312274.665452</v>
       </c>
       <c r="F32" t="n">
-        <v>0.099084883342587</v>
+        <v>0.1062279882965961</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0333428856860167</v>
+        <v>0.02843328395296358</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>941595617.5053452</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1933049671.187376</v>
+        <v>2457239734.801119</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1635948647182977</v>
+        <v>0.1855256908741799</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05710936263726187</v>
+        <v>0.04122558168806396</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>51</v>
-      </c>
-      <c r="J33" t="n">
-        <v>966524922.0461992</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1017276714.810969</v>
+        <v>1333242284.850838</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09881094766763318</v>
+        <v>0.07707108771386655</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01745495915076783</v>
+        <v>0.02585562312151097</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>508638392.4457353</v>
       </c>
     </row>
     <row r="35">
@@ -1618,22 +1410,16 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1346782539.077178</v>
+        <v>1088653292.921898</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09661066984905027</v>
+        <v>0.1051572547180692</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04406249235578407</v>
+        <v>0.04492804413931745</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>673391212.0334466</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2863640507.081546</v>
+        <v>3229422792.343942</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1178049539671074</v>
+        <v>0.1358888875106169</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02628292325968323</v>
+        <v>0.02071864817998506</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>42</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1431820246.336499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1892692766.052368</v>
+        <v>2149763493.220055</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07492210904410285</v>
+        <v>0.1123335811008264</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03901274173034074</v>
+        <v>0.02715522007555704</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>47</v>
-      </c>
-      <c r="J37" t="n">
-        <v>946346395.5186942</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1472096128.369104</v>
+        <v>2138220091.431622</v>
       </c>
       <c r="F38" t="n">
-        <v>0.103633056954513</v>
+        <v>0.1026064689124768</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0388301377465668</v>
+        <v>0.03622595106000976</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>736048117.3516922</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2128398117.704237</v>
+        <v>1946858371.970779</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1633215343482896</v>
+        <v>0.1266961957969686</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02617066623109081</v>
+        <v>0.0206464195513894</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1064199033.885434</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1798592511.638219</v>
+        <v>1462581546.335283</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1550733984237248</v>
+        <v>0.1141804644103325</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04266569684791687</v>
+        <v>0.04559367802188948</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>899296147.2412215</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2060738921.368635</v>
+        <v>1930652247.080541</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1623999820077591</v>
+        <v>0.1456383869821028</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03951421991604164</v>
+        <v>0.03084472697043516</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>45</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1030369528.911197</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3421133468.570909</v>
+        <v>3365806037.535355</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1183727740365064</v>
+        <v>0.10126291744767</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04217135890222156</v>
+        <v>0.03821279499063129</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>59</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1710566723.678238</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2192015997.713899</v>
+        <v>1866734726.94654</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1350242888628165</v>
+        <v>0.2005740178299652</v>
       </c>
       <c r="G43" t="n">
-        <v>0.022734949784389</v>
+        <v>0.02553914293077884</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>59</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1096008078.470417</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2350542124.611786</v>
+        <v>2138983434.616102</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07636224995062232</v>
+        <v>0.07579899489965322</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03479173157051908</v>
+        <v>0.02572029840967376</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1175271238.559925</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2472404235.575558</v>
+        <v>1755042198.457597</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1365086330023801</v>
+        <v>0.1864054418453836</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05084368042495028</v>
+        <v>0.04221696164291171</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1236202156.229302</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3768025170.901813</v>
+        <v>4371439831.131302</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1408207849365216</v>
+        <v>0.1149737556589477</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03887326449796558</v>
+        <v>0.05974798234051807</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>61</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1884012541.706453</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4328967710.204174</v>
+        <v>4036037536.076734</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1281811662339039</v>
+        <v>0.1666652299758574</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03757075439214611</v>
+        <v>0.05617591462720906</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>45</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2164483872.877851</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -2060,22 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3824031361.440565</v>
+        <v>3344247298.504253</v>
       </c>
       <c r="F48" t="n">
-        <v>0.076031903437803</v>
+        <v>0.07597256347051851</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02438209113112398</v>
+        <v>0.02858632433808741</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>56</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1912015725.287262</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1326759172.524205</v>
+        <v>1667010534.159063</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1878149746151408</v>
+        <v>0.1475351957832547</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03725664523640098</v>
+        <v>0.04010684057599292</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>663379645.20689</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3150300577.55901</v>
+        <v>3009097698.784483</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1505024110423046</v>
+        <v>0.1627208114017401</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05259638188130484</v>
+        <v>0.0379345041749405</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>57</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1575150337.880375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1379075626.251082</v>
+        <v>1083626872.607261</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1563449755866371</v>
+        <v>0.1434217108111819</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04695373657158518</v>
+        <v>0.04318396115120211</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>689537835.609322</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3540986101.260435</v>
+        <v>4225834657.051051</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08411274099461929</v>
+        <v>0.1295369589046159</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05327883635425235</v>
+        <v>0.04553587505159074</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>69</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1770493134.092334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2484298420.857181</v>
+        <v>3730721426.254433</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1273064511698405</v>
+        <v>0.1951592620094467</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03060926522060072</v>
+        <v>0.02456979041351328</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>49</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1242149278.398044</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3256969374.761173</v>
+        <v>4785722874.038677</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1591195266761714</v>
+        <v>0.1682472543985072</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03861336078703828</v>
+        <v>0.04150495485074505</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>54</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1628484693.055328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3201842969.152272</v>
+        <v>3204700384.590215</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2032611083008905</v>
+        <v>0.141614623898989</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02752617179066409</v>
+        <v>0.03091388898276778</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>44</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1600921424.213073</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1225773872.260724</v>
+        <v>1543726780.788045</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1623807433301171</v>
+        <v>0.131812907420515</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05021057779931243</v>
+        <v>0.04416438544438552</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>612887019.0065777</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3416333099.680108</v>
+        <v>4464441723.783538</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1733497439825746</v>
+        <v>0.1286439250075114</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02037957183810096</v>
+        <v>0.02208576225131869</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>55</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1708166589.17031</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1303169250.956994</v>
+        <v>1183040524.464685</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1898849995017649</v>
+        <v>0.2027897797255295</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02627665979650912</v>
+        <v>0.02694975622559957</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>651584674.5451339</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4469126379.53508</v>
+        <v>4381954736.725829</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1150657594834971</v>
+        <v>0.1134554364471832</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04665594203813057</v>
+        <v>0.0439701562981555</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>48</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2234563143.05495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3443214450.826952</v>
+        <v>3427996780.161534</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1522226581912254</v>
+        <v>0.1513390527558613</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02549647030474577</v>
+        <v>0.02744329170712461</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>52</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1721607342.222391</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3355175331.391816</v>
+        <v>2737879511.185209</v>
       </c>
       <c r="F61" t="n">
-        <v>0.145425593404506</v>
+        <v>0.1435153688265952</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02080861381290307</v>
+        <v>0.02656247471994679</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>56</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1677587612.635812</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1631288243.779082</v>
+        <v>1346987270.588633</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1413230748996182</v>
+        <v>0.176199408911196</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03816169061872734</v>
+        <v>0.03394966899170227</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>815644124.6097468</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4638887450.803635</v>
+        <v>5300147285.170303</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0841703882775776</v>
+        <v>0.08536516799367858</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03410360246872681</v>
+        <v>0.04165733473857258</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>48</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2319443759.233502</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3606116559.663251</v>
+        <v>5365227531.394712</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1404984697832054</v>
+        <v>0.1547239654045328</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02306575195858666</v>
+        <v>0.03171214239082394</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>52</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1803058287.944896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4914759838.173993</v>
+        <v>4184861525.088543</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1691257808781293</v>
+        <v>0.1483274701398886</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02396828250920417</v>
+        <v>0.03182650813739389</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>62</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2457379883.035141</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5371772515.317059</v>
+        <v>4996742602.726214</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1282868172399916</v>
+        <v>0.1276231658647419</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04824774008549721</v>
+        <v>0.05118361554647526</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>49</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2685886304.74342</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2309185500.996803</v>
+        <v>3033263265.371105</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09877016948593299</v>
+        <v>0.08573735524352724</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04296039540932088</v>
+        <v>0.04767241738959568</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>54</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1154592827.238022</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4652119451.74933</v>
+        <v>4831122389.922836</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1158735676751202</v>
+        <v>0.1474879191255781</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04084800917704023</v>
+        <v>0.04394557429757518</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>53</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2326059761.16012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1810304922.486778</v>
+        <v>1502638707.691653</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1578421239870918</v>
+        <v>0.1633856932005221</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04021227703699316</v>
+        <v>0.04122050174340838</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>905152441.6443397</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2437838139.721772</v>
+        <v>2786934027.145366</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09480351043321213</v>
+        <v>0.101493134656817</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03786965781348058</v>
+        <v>0.03032562586609305</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>48</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1218919010.199829</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4298336427.053382</v>
+        <v>3463548914.348701</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1741980345354737</v>
+        <v>0.1692304272910565</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03120289744295102</v>
+        <v>0.03065388222089752</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>62</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2149168266.846156</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1425389694.470517</v>
+        <v>1654888862.137591</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06594487016578676</v>
+        <v>0.06572256458313985</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03747290429474281</v>
+        <v>0.03710110435243238</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>712694886.2365091</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2826700267.303309</v>
+        <v>3122671447.1594</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1029303965405556</v>
+        <v>0.1039431781286385</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05098203630939642</v>
+        <v>0.04460415450315609</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>64</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1413350145.45502</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3940859860.455037</v>
+        <v>3122406819.291901</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1143086698259048</v>
+        <v>0.1184869010093068</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02646249970794098</v>
+        <v>0.03516441898743107</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>57</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1970429914.257314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2421422131.061025</v>
+        <v>1511240897.361849</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1218941414851613</v>
+        <v>0.1576527285004534</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03426541188122328</v>
+        <v>0.0353931868655952</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1210710990.228188</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3330521053.885703</v>
+        <v>3780685479.605505</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08003123980247574</v>
+        <v>0.106649649271688</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02535750180033956</v>
+        <v>0.02766879498441037</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>37</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1665260483.556417</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1709993291.236205</v>
+        <v>1860232366.393876</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1719928403415099</v>
+        <v>0.1217166314836515</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02526635588839462</v>
+        <v>0.02619564105263135</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>854996664.2805381</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4803902327.441705</v>
+        <v>4115241858.267019</v>
       </c>
       <c r="F78" t="n">
-        <v>0.116216863064286</v>
+        <v>0.1098288938365092</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05681040533932902</v>
+        <v>0.05275422097849657</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>60</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2401951071.909814</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1216850279.201845</v>
+        <v>1830458798.663555</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1134821882298606</v>
+        <v>0.1361225152583837</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02878157728979159</v>
+        <v>0.02755377725282362</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>608425124.2636101</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5047541180.365645</v>
+        <v>4930384250.543955</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07467880846335516</v>
+        <v>0.1059708165453077</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0385942353280157</v>
+        <v>0.02345482115162572</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>35</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2523770641.715555</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4282656371.049975</v>
+        <v>3391705600.358853</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1232366639730493</v>
+        <v>0.1280744319923982</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03249383426187331</v>
+        <v>0.03012234797630953</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>39</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2141328159.21557</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5085328319.78683</v>
+        <v>4225286461.535489</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1884544407770268</v>
+        <v>0.190408906439562</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02063815469408303</v>
+        <v>0.02858027161185255</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>63</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2542664139.022892</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2049246134.201066</v>
+        <v>1730696018.160325</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1126901991072341</v>
+        <v>0.1217914645321867</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03785112392951274</v>
+        <v>0.04277769974963858</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1024623058.510185</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2586987797.867879</v>
+        <v>2546603825.489836</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1202057881636264</v>
+        <v>0.07751814626373091</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04799179583378134</v>
+        <v>0.03694762834444151</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1293493817.945569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3491255673.824377</v>
+        <v>3485388444.93022</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1297540502885025</v>
+        <v>0.1142011047309716</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04420904741987303</v>
+        <v>0.03767245987814128</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>64</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1745627951.256056</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1789237331.167724</v>
+        <v>2503355377.839642</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1349893269481671</v>
+        <v>0.1485101380287254</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02702951455595858</v>
+        <v>0.01801722297282232</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>22</v>
-      </c>
-      <c r="J86" t="n">
-        <v>894618663.8752022</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>921897091.3706385</v>
+        <v>907367070.6470181</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1416410644153618</v>
+        <v>0.1218464821829602</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02681953686468471</v>
+        <v>0.03774229802063064</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>460948529.9634761</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3656970080.282945</v>
+        <v>3384013560.250336</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1128736050808044</v>
+        <v>0.1508409070810965</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03746190509186768</v>
+        <v>0.02838528547552636</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>67</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1828485135.473846</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2930795893.947968</v>
+        <v>3064491258.1807</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1288537895708599</v>
+        <v>0.1388319722282097</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0272225763621991</v>
+        <v>0.03275226805704716</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>59</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1465397990.121463</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1399617340.777286</v>
+        <v>1547225648.931939</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1145991992308017</v>
+        <v>0.1286034399050487</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04805873406328157</v>
+        <v>0.04502299138443547</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>699808630.6902097</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1932271459.349332</v>
+        <v>1598999457.350018</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1847852412399143</v>
+        <v>0.1898317326619348</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03891485803826272</v>
+        <v>0.04601045882607262</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>966135710.9172515</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2462209183.827895</v>
+        <v>2962736483.408842</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09046877695808792</v>
+        <v>0.07685908020721502</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03768146415558476</v>
+        <v>0.04289156358699221</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>41</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1231104572.98638</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3616002366.479349</v>
+        <v>3099498475.773328</v>
       </c>
       <c r="F93" t="n">
-        <v>0.102963175381118</v>
+        <v>0.09587746940066981</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04974568942661464</v>
+        <v>0.03517272193575351</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>49</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1808001208.667485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1819877223.221033</v>
+        <v>2299201971.678548</v>
       </c>
       <c r="F94" t="n">
-        <v>0.12912891110873</v>
+        <v>0.1195095211137809</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02691953713007025</v>
+        <v>0.0335981467516713</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>909938586.4571631</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2076225325.005832</v>
+        <v>2302828564.717384</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1017668549446102</v>
+        <v>0.1139673195954186</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04532718061229617</v>
+        <v>0.04324983496052122</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>40</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1038112729.391919</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1906320390.349918</v>
+        <v>2380551235.683533</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1340412205475847</v>
+        <v>0.09675971258227373</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04362896952435517</v>
+        <v>0.03976790855570401</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>953160192.1161714</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4974886725.81108</v>
+        <v>5123471283.259156</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1335380365458903</v>
+        <v>0.1459398798702679</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02830189780957426</v>
+        <v>0.01826334972341652</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>57</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2487443497.652122</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3218075613.806816</v>
+        <v>3512170930.75048</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1141821182517615</v>
+        <v>0.1131111356796305</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0213602818036435</v>
+        <v>0.02239048562251479</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>44</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1609037806.34609</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2857523417.879765</v>
+        <v>2984236034.77232</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1382260880778283</v>
+        <v>0.1105011860361022</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02724468606125376</v>
+        <v>0.02912870148571944</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>55</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1428761684.515221</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4043192558.059274</v>
+        <v>4118425672.881687</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1569163563326516</v>
+        <v>0.1488645198976293</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02502738783207984</v>
+        <v>0.02694115182098478</v>
       </c>
       <c r="H100" t="b">
         <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>51</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2021596353.128516</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3046974744.46768</v>
+        <v>2702041192.838194</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1364467576853611</v>
+        <v>0.1912115344601948</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03961097730568496</v>
+        <v>0.04396396487088787</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>68</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1523487467.453946</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_169.xlsx
+++ b/output/fit_clients/fit_round_169.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2284781147.561576</v>
+        <v>2288614779.799252</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1019902746855989</v>
+        <v>0.11218614543944</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03311793049780532</v>
+        <v>0.03180485395057397</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2290334274.453735</v>
+        <v>2386787185.763533</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1364766066502127</v>
+        <v>0.1132389012978105</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03096958270232533</v>
+        <v>0.03693670481230035</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5181920363.152966</v>
+        <v>5187201596.414042</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1272954787640847</v>
+        <v>0.1374142151136748</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02726009347020877</v>
+        <v>0.02342032458988335</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2810409752.776396</v>
+        <v>2890959315.787258</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07882642801113686</v>
+        <v>0.1093320011044249</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04567902940276559</v>
+        <v>0.04826407188269593</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1772097828.558896</v>
+        <v>2734876418.831851</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1342594194662187</v>
+        <v>0.1004167086619055</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05306803291876034</v>
+        <v>0.04943123516458999</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2662387697.029779</v>
+        <v>1970558402.84358</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06656415288038423</v>
+        <v>0.06522526052228851</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03147007371704352</v>
+        <v>0.04624045481256719</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,22 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2989358168.915196</v>
+        <v>2755507051.039212</v>
       </c>
       <c r="F8" t="n">
-        <v>0.149541634974735</v>
+        <v>0.1807752487402113</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02344451427264311</v>
+        <v>0.02287165463881692</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1413548568.029722</v>
+        <v>1724061523.497255</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1271977281780479</v>
+        <v>0.1869732332490311</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02717659979773458</v>
+        <v>0.0280774641513475</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4474542510.441905</v>
+        <v>4438532353.522313</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1663658058483911</v>
+        <v>0.1470797841340109</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0427611976083989</v>
+        <v>0.03807677064610548</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3641063056.361162</v>
+        <v>3689187977.626961</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1264543989884168</v>
+        <v>0.1829452821557433</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03007792543243037</v>
+        <v>0.04031705293176742</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2825702251.223386</v>
+        <v>2455869670.063083</v>
       </c>
       <c r="F12" t="n">
-        <v>0.136703547780548</v>
+        <v>0.1299371679434171</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04084417703393611</v>
+        <v>0.0365932444633893</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4292860610.714452</v>
+        <v>3999891282.504456</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06427128792160987</v>
+        <v>0.08309217816344207</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02330761470593711</v>
+        <v>0.02260165457387456</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2546782042.82181</v>
+        <v>3050099129.854857</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1580035203082912</v>
+        <v>0.1274621685266737</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02727925290006574</v>
+        <v>0.03826536379968655</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1582137600.759701</v>
+        <v>1514635127.932823</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07089874092379909</v>
+        <v>0.07340223695031424</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04483997415153875</v>
+        <v>0.03735685418619167</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2026059712.471869</v>
+        <v>2448027757.374171</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1087393801907267</v>
+        <v>0.07298769392300213</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04113841309234877</v>
+        <v>0.03916078230213414</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3664441014.832132</v>
+        <v>4336278796.717656</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1411378654902926</v>
+        <v>0.1595273980393556</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04681921217478214</v>
+        <v>0.04882731691496296</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2567153995.636005</v>
+        <v>3959663483.742211</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1690606861808208</v>
+        <v>0.1505399865664084</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02116206500433733</v>
+        <v>0.0333339950204197</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>868722238.6492276</v>
+        <v>989345764.3310255</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1387363291753201</v>
+        <v>0.1631835400394867</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02305589102575857</v>
+        <v>0.02691780756555601</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1743739961.929096</v>
+        <v>2200702588.861159</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1024814397905271</v>
+        <v>0.1450822180117488</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01931107568436596</v>
+        <v>0.02885790826721013</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2335410831.085093</v>
+        <v>2545605621.012554</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08704131715042207</v>
+        <v>0.08423301300526999</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04114425631144151</v>
+        <v>0.04482995425013778</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3981182250.108034</v>
+        <v>3152279579.26405</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1376684684604319</v>
+        <v>0.1430848735085312</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05270442908501909</v>
+        <v>0.05202793971530957</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1088801420.0097</v>
+        <v>1459743270.962626</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1532195493672461</v>
+        <v>0.1591289595733061</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04915591757143198</v>
+        <v>0.05066458677720165</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3755670821.987875</v>
+        <v>3786096910.276786</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1072423946926833</v>
+        <v>0.1135074727611965</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02331780342416334</v>
+        <v>0.02596843249969995</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1166185316.688207</v>
+        <v>1396061551.863876</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1007773632130181</v>
+        <v>0.08682168675611215</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01863317115243929</v>
+        <v>0.02173792137405657</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1269354693.48305</v>
+        <v>1169902446.389503</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08698966329390891</v>
+        <v>0.1118061471042858</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02835975571879788</v>
+        <v>0.02849568967142558</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3972769676.375139</v>
+        <v>3872159974.3794</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1270135616963392</v>
+        <v>0.1457934057724471</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02355626261564848</v>
+        <v>0.01958524780518768</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3173328574.211412</v>
+        <v>2516971733.588054</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1353711769215619</v>
+        <v>0.1522170896055042</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04635995114022268</v>
+        <v>0.03288895878025709</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4458476612.980094</v>
+        <v>5726286250.034883</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1358490580416457</v>
+        <v>0.1139132458910126</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02997603745681345</v>
+        <v>0.03073794783207265</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2354161100.285386</v>
+        <v>2166653519.259809</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1290944956085434</v>
+        <v>0.08651131674648758</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03044452114662754</v>
+        <v>0.025829737661641</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1328337926.386436</v>
+        <v>1006233515.37578</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08740928491975837</v>
+        <v>0.070104903352671</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05215184924997116</v>
+        <v>0.03905214385405736</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1396312274.665452</v>
+        <v>1474952450.544595</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1062279882965961</v>
+        <v>0.1045354493068004</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02843328395296358</v>
+        <v>0.0332632703095045</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2457239734.801119</v>
+        <v>1881068996.414368</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1855256908741799</v>
+        <v>0.1736807640500036</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04122558168806396</v>
+        <v>0.05837478328709889</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1333242284.850838</v>
+        <v>1184675753.916045</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07707108771386655</v>
+        <v>0.1101600477010343</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02585562312151097</v>
+        <v>0.02050209382065041</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1088653292.921898</v>
+        <v>820977137.2607107</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1051572547180692</v>
+        <v>0.08584332293901102</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04492804413931745</v>
+        <v>0.02821486175272132</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3229422792.343942</v>
+        <v>2827898028.841411</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1358888875106169</v>
+        <v>0.1112568281759962</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02071864817998506</v>
+        <v>0.02090859919287459</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2149763493.220055</v>
+        <v>1979910902.28176</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1123335811008264</v>
+        <v>0.08385446640647962</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02715522007555704</v>
+        <v>0.02663530690255006</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2138220091.431622</v>
+        <v>2109193343.500567</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1026064689124768</v>
+        <v>0.1011792252870274</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03622595106000976</v>
+        <v>0.03453594833854171</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1946858371.970779</v>
+        <v>1642591459.154629</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1266961957969686</v>
+        <v>0.1836442294224027</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0206464195513894</v>
+        <v>0.02960323711682709</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1462581546.335283</v>
+        <v>1626634402.476839</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1141804644103325</v>
+        <v>0.1565707249786285</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04559367802188948</v>
+        <v>0.0447034461008492</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1930652247.080541</v>
+        <v>2030813595.587982</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1456383869821028</v>
+        <v>0.1042358587682774</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03084472697043516</v>
+        <v>0.03747089635267611</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3365806037.535355</v>
+        <v>3827465008.020825</v>
       </c>
       <c r="F42" t="n">
-        <v>0.10126291744767</v>
+        <v>0.1010940672150496</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03821279499063129</v>
+        <v>0.04437010241738569</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1866734726.94654</v>
+        <v>2834084841.599019</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2005740178299652</v>
+        <v>0.1797508339539546</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02553914293077884</v>
+        <v>0.01728494096728187</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2138983434.616102</v>
+        <v>2087473914.916922</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07579899489965322</v>
+        <v>0.07169479637975067</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02572029840967376</v>
+        <v>0.02532390298758225</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1755042198.457597</v>
+        <v>2305652284.392202</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1864054418453836</v>
+        <v>0.1429397751240225</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04221696164291171</v>
+        <v>0.05267154112103505</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4371439831.131302</v>
+        <v>3789113789.27306</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1149737556589477</v>
+        <v>0.1127135196391084</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05974798234051807</v>
+        <v>0.03783619342057717</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,13 +1746,13 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4036037536.076734</v>
+        <v>4049241477.829165</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1666652299758574</v>
+        <v>0.1941305062288581</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05617591462720906</v>
+        <v>0.04267251374398651</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3344247298.504253</v>
+        <v>4482491682.798085</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07597256347051851</v>
+        <v>0.07197676864473672</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02858632433808741</v>
+        <v>0.02811500852964981</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1667010534.159063</v>
+        <v>1627273231.826921</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1475351957832547</v>
+        <v>0.1925389212889956</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04010684057599292</v>
+        <v>0.02754146813176229</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3009097698.784483</v>
+        <v>3440831429.969073</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1627208114017401</v>
+        <v>0.1127418539808623</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0379345041749405</v>
+        <v>0.03306846232889697</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1083626872.607261</v>
+        <v>1262199524.871328</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1434217108111819</v>
+        <v>0.137564966881411</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04318396115120211</v>
+        <v>0.0458977322448105</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4225834657.051051</v>
+        <v>4482815290.928672</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1295369589046159</v>
+        <v>0.08850427705701266</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04553587505159074</v>
+        <v>0.04772784960921022</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3730721426.254433</v>
+        <v>3447379343.835527</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1951592620094467</v>
+        <v>0.203334841237166</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02456979041351328</v>
+        <v>0.03528414528148787</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4785722874.038677</v>
+        <v>4191218745.464189</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1682472543985072</v>
+        <v>0.1486218671175238</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04150495485074505</v>
+        <v>0.03461430918321856</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3204700384.590215</v>
+        <v>3313267418.694851</v>
       </c>
       <c r="F55" t="n">
-        <v>0.141614623898989</v>
+        <v>0.189114591256134</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03091388898276778</v>
+        <v>0.02371654090429215</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1543726780.788045</v>
+        <v>1618821691.891367</v>
       </c>
       <c r="F56" t="n">
-        <v>0.131812907420515</v>
+        <v>0.1177813471475221</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04416438544438552</v>
+        <v>0.03967186819141564</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4464441723.783538</v>
+        <v>2942781573.307744</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1286439250075114</v>
+        <v>0.1662673598496429</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02208576225131869</v>
+        <v>0.02741001423889623</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1183040524.464685</v>
+        <v>1450689942.159751</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2027897797255295</v>
+        <v>0.1829046925562679</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02694975622559957</v>
+        <v>0.02516327739654808</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4381954736.725829</v>
+        <v>4125581433.648639</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1134554364471832</v>
+        <v>0.09750504253727157</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0439701562981555</v>
+        <v>0.03709300608271532</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3427996780.161534</v>
+        <v>2323359100.280215</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1513390527558613</v>
+        <v>0.1487412615699303</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02744329170712461</v>
+        <v>0.0286757592661456</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2737879511.185209</v>
+        <v>3046706362.295393</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1435153688265952</v>
+        <v>0.1335771613351409</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02656247471994679</v>
+        <v>0.03207016905389264</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1346987270.588633</v>
+        <v>1681872641.26552</v>
       </c>
       <c r="F62" t="n">
-        <v>0.176199408911196</v>
+        <v>0.1896648010304188</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03394966899170227</v>
+        <v>0.04368285934193289</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5300147285.170303</v>
+        <v>4072798635.516896</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08536516799367858</v>
+        <v>0.09298744177501304</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04165733473857258</v>
+        <v>0.02912323585979625</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5365227531.394712</v>
+        <v>4298569747.029065</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1547239654045328</v>
+        <v>0.1846427960720066</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03171214239082394</v>
+        <v>0.03535841262349376</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4184861525.088543</v>
+        <v>4221707447.641631</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1483274701398886</v>
+        <v>0.1113548825840637</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03182650813739389</v>
+        <v>0.02193776917752897</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4996742602.726214</v>
+        <v>3818952729.249303</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1276231658647419</v>
+        <v>0.1285283407725452</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05118361554647526</v>
+        <v>0.03474943976539731</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,16 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3033263265.371105</v>
+        <v>3294218278.781221</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08573735524352724</v>
+        <v>0.07282547568175404</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04767241738959568</v>
+        <v>0.03918029916910376</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4831122389.922836</v>
+        <v>4678412362.538058</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1474879191255781</v>
+        <v>0.1012960409872413</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04394557429757518</v>
+        <v>0.03494477239349164</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1502638707.691653</v>
+        <v>1751512535.172353</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1633856932005221</v>
+        <v>0.1303171993399024</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04122050174340838</v>
+        <v>0.04827957130243777</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2786934027.145366</v>
+        <v>2331984356.625319</v>
       </c>
       <c r="F70" t="n">
-        <v>0.101493134656817</v>
+        <v>0.08380048656066325</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03032562586609305</v>
+        <v>0.04797646329336169</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3463548914.348701</v>
+        <v>4836838098.020876</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1692304272910565</v>
+        <v>0.1825896164371089</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03065388222089752</v>
+        <v>0.02149533369062517</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1654888862.137591</v>
+        <v>1426525091.322838</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06572256458313985</v>
+        <v>0.07277144890935776</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03710110435243238</v>
+        <v>0.05041112369982179</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3122671447.1594</v>
+        <v>2393241185.412034</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1039431781286385</v>
+        <v>0.1066255568117518</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04460415450315609</v>
+        <v>0.04886031938487392</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3122406819.291901</v>
+        <v>3899754673.322045</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1184869010093068</v>
+        <v>0.1320646175340886</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03516441898743107</v>
+        <v>0.02219536696336183</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1511240897.361849</v>
+        <v>1713686046.003753</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1576527285004534</v>
+        <v>0.1184062909051521</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0353931868655952</v>
+        <v>0.02355234648393165</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2558,16 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3780685479.605505</v>
+        <v>4665094036.849856</v>
       </c>
       <c r="F76" t="n">
-        <v>0.106649649271688</v>
+        <v>0.1160181671582855</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02766879498441037</v>
+        <v>0.02515477572794689</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1860232366.393876</v>
+        <v>1786714432.989994</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1217166314836515</v>
+        <v>0.1481403197260148</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02619564105263135</v>
+        <v>0.022471321261759</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4115241858.267019</v>
+        <v>3288733019.192668</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1098288938365092</v>
+        <v>0.1113582079116672</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05275422097849657</v>
+        <v>0.04797276068589811</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1830458798.663555</v>
+        <v>1160403418.731672</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1361225152583837</v>
+        <v>0.1210551932211241</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02755377725282362</v>
+        <v>0.02867531506654573</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2670,13 +2670,13 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4930384250.543955</v>
+        <v>4319995847.913722</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1059708165453077</v>
+        <v>0.06963664800446771</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02345482115162572</v>
+        <v>0.02781489728502056</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3391705600.358853</v>
+        <v>3497811396.352064</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1280744319923982</v>
+        <v>0.08960626425703801</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03012234797630953</v>
+        <v>0.0266393263657866</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4225286461.535489</v>
+        <v>4388490652.383015</v>
       </c>
       <c r="F82" t="n">
-        <v>0.190408906439562</v>
+        <v>0.2111746249976025</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02858027161185255</v>
+        <v>0.01786510474320316</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1730696018.160325</v>
+        <v>2126782804.536518</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1217914645321867</v>
+        <v>0.1557725794601372</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04277769974963858</v>
+        <v>0.0418394326946129</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2546603825.489836</v>
+        <v>2462279798.159674</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07751814626373091</v>
+        <v>0.09056596828682818</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03694762834444151</v>
+        <v>0.04751965619198561</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3485388444.93022</v>
+        <v>2671963041.727985</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1142011047309716</v>
+        <v>0.1846535088367237</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03767245987814128</v>
+        <v>0.04066904437645578</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2503355377.839642</v>
+        <v>2578900277.719824</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1485101380287254</v>
+        <v>0.1485538774291714</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01801722297282232</v>
+        <v>0.02587533718737728</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>907367070.6470181</v>
+        <v>1439844754.569673</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1218464821829602</v>
+        <v>0.1882830882446378</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03774229802063064</v>
+        <v>0.04410898441457151</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3384013560.250336</v>
+        <v>2823798443.477915</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1508409070810965</v>
+        <v>0.1727255121124769</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02838528547552636</v>
+        <v>0.03491047149966343</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3064491258.1807</v>
+        <v>2640860254.768332</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1388319722282097</v>
+        <v>0.1423499836219247</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03275226805704716</v>
+        <v>0.03378791882271752</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1547225648.931939</v>
+        <v>1950344909.32831</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1286034399050487</v>
+        <v>0.08931245702116312</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04502299138443547</v>
+        <v>0.04263358490132461</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,16 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1598999457.350018</v>
+        <v>1701779435.381155</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1898317326619348</v>
+        <v>0.1202477613063765</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04601045882607262</v>
+        <v>0.05088221562871688</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2962736483.408842</v>
+        <v>2195459298.525191</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07685908020721502</v>
+        <v>0.07812920369933538</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04289156358699221</v>
+        <v>0.04280436018931793</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3099498475.773328</v>
+        <v>3596222050.635897</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09587746940066981</v>
+        <v>0.1111713805670691</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03517272193575351</v>
+        <v>0.05418438260295607</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2299201971.678548</v>
+        <v>1521047985.072054</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1195095211137809</v>
+        <v>0.1253828657350018</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0335981467516713</v>
+        <v>0.03282274213195583</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2302828564.717384</v>
+        <v>2809702606.044645</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1139673195954186</v>
+        <v>0.08405749130615442</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04324983496052122</v>
+        <v>0.0364237967896568</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2380551235.683533</v>
+        <v>1974360158.629979</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09675971258227373</v>
+        <v>0.09329847456772185</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03976790855570401</v>
+        <v>0.04275028928194561</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,13 +3146,13 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5123471283.259156</v>
+        <v>4025925949.316728</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1459398798702679</v>
+        <v>0.1178723875316777</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01826334972341652</v>
+        <v>0.02377655033990594</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3512170930.75048</v>
+        <v>2437968105.253354</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1131111356796305</v>
+        <v>0.1082737918557667</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02239048562251479</v>
+        <v>0.02944202269043071</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2984236034.77232</v>
+        <v>2469168078.571898</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1105011860361022</v>
+        <v>0.1043217380731023</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02912870148571944</v>
+        <v>0.02973937249861585</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,16 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4118425672.881687</v>
+        <v>3299936170.874128</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1488645198976293</v>
+        <v>0.1466195609412601</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02694115182098478</v>
+        <v>0.01898229240621424</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2702041192.838194</v>
+        <v>3533237078.833778</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1912115344601948</v>
+        <v>0.1567204545588556</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04396396487088787</v>
+        <v>0.05179453615600358</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_169.xlsx
+++ b/output/fit_clients/fit_round_169.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2288614779.799252</v>
+        <v>2310060089.054815</v>
       </c>
       <c r="F2" t="n">
-        <v>0.11218614543944</v>
+        <v>0.07469131783898719</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03180485395057397</v>
+        <v>0.02762682577570942</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2386787185.763533</v>
+        <v>2649671439.253657</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1132389012978105</v>
+        <v>0.1366250609278453</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03693670481230035</v>
+        <v>0.03850810673609846</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5187201596.414042</v>
+        <v>3277680458.653257</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1374142151136748</v>
+        <v>0.1644888049259629</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02342032458988335</v>
+        <v>0.02386937240639818</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>94</v>
+      </c>
+      <c r="J4" t="n">
+        <v>167</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2890959315.787258</v>
+        <v>3988374367.96426</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1093320011044249</v>
+        <v>0.07740585738364379</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04826407188269593</v>
+        <v>0.04167465894922292</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>69</v>
+      </c>
+      <c r="J5" t="n">
+        <v>169</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +641,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2734876418.831851</v>
+        <v>1737066368.928037</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1004167086619055</v>
+        <v>0.09430455839838575</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04943123516458999</v>
+        <v>0.04359955228789695</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1970558402.84358</v>
+        <v>2995071521.64323</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06522526052228851</v>
+        <v>0.08315855071966427</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04624045481256719</v>
+        <v>0.03597822369890519</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2755507051.039212</v>
+        <v>3736264370.73696</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1807752487402113</v>
+        <v>0.1708198882922018</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02287165463881692</v>
+        <v>0.02905000338473551</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>48</v>
+      </c>
+      <c r="J8" t="n">
+        <v>169</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1724061523.497255</v>
+        <v>1582155546.604239</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1869732332490311</v>
+        <v>0.1213785558100333</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0280774641513475</v>
+        <v>0.03356917972166114</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +775,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4438532353.522313</v>
+        <v>4900463764.646109</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1470797841340109</v>
+        <v>0.2043498140811126</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03807677064610548</v>
+        <v>0.04839461004539001</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>155</v>
+      </c>
+      <c r="J10" t="n">
+        <v>169</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +810,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3689187977.626961</v>
+        <v>4094779995.25379</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1829452821557433</v>
+        <v>0.1897205126807723</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04031705293176742</v>
+        <v>0.04664543520551827</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>70</v>
+      </c>
+      <c r="J11" t="n">
+        <v>169</v>
+      </c>
+      <c r="K11" t="n">
+        <v>140.333864832019</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +847,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2455869670.063083</v>
+        <v>2194505862.469378</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1299371679434171</v>
+        <v>0.1750328908736579</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0365932444633893</v>
+        <v>0.03644918018409397</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3999891282.504456</v>
+        <v>4066229971.28562</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08309217816344207</v>
+        <v>0.07604936066229477</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02260165457387456</v>
+        <v>0.02567043016711756</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>83</v>
+      </c>
+      <c r="J13" t="n">
+        <v>168</v>
+      </c>
+      <c r="K13" t="n">
+        <v>128.5996616466414</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3050099129.854857</v>
+        <v>3702154249.059119</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1274621685266737</v>
+        <v>0.1497973421476589</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03826536379968655</v>
+        <v>0.04134070077980126</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>30</v>
+      </c>
+      <c r="J14" t="n">
+        <v>169</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +960,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1514635127.932823</v>
+        <v>1546609749.663057</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07340223695031424</v>
+        <v>0.1051675010984357</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03735685418619167</v>
+        <v>0.03382206710420463</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2448027757.374171</v>
+        <v>1802539437.993977</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07298769392300213</v>
+        <v>0.09017919652753992</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03916078230213414</v>
+        <v>0.03969414910878696</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1024,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4336278796.717656</v>
+        <v>4994880675.343496</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1595273980393556</v>
+        <v>0.1611173404521418</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04882731691496296</v>
+        <v>0.05051012151012662</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>81</v>
+      </c>
+      <c r="J17" t="n">
+        <v>168</v>
+      </c>
+      <c r="K17" t="n">
+        <v>119.0857476379042</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1061,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3959663483.742211</v>
+        <v>3891986901.196791</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1505399865664084</v>
+        <v>0.179626302998462</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0333339950204197</v>
+        <v>0.02515773178514821</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>42</v>
+      </c>
+      <c r="J18" t="n">
+        <v>169</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>989345764.3310255</v>
+        <v>1137788873.505079</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1631835400394867</v>
+        <v>0.1280306441944024</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02691780756555601</v>
+        <v>0.02472986131640425</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2200702588.861159</v>
+        <v>1877989024.875816</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1450822180117488</v>
+        <v>0.1271553376911053</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02885790826721013</v>
+        <v>0.02287841591638478</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2545605621.012554</v>
+        <v>2456044279.727788</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08423301300526999</v>
+        <v>0.09142636399998977</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04482995425013778</v>
+        <v>0.04385217551689848</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1201,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3152279579.26405</v>
+        <v>3110597301.86327</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1430848735085312</v>
+        <v>0.1212556271038263</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05202793971530957</v>
+        <v>0.05389684911853188</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>44</v>
+      </c>
+      <c r="J22" t="n">
+        <v>166</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1236,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1459743270.962626</v>
+        <v>1199157377.959997</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1591289595733061</v>
+        <v>0.1447555684317762</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05066458677720165</v>
+        <v>0.04273471051319262</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1271,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3786096910.276786</v>
+        <v>4108062341.45282</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1135074727611965</v>
+        <v>0.1240612450105339</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02596843249969995</v>
+        <v>0.03384959888452395</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>51</v>
+      </c>
+      <c r="J24" t="n">
+        <v>168</v>
+      </c>
+      <c r="K24" t="n">
+        <v>118.8212417053871</v>
       </c>
     </row>
     <row r="25">
@@ -1124,23 +1308,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1396061551.863876</v>
+        <v>961432194.7140225</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08682168675611215</v>
+        <v>0.1031334332305268</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02173792137405657</v>
+        <v>0.01982063375599654</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1169902446.389503</v>
+        <v>891909333.4199275</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1118061471042858</v>
+        <v>0.1189266008646015</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02849568967142558</v>
+        <v>0.03393648765308988</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3872159974.3794</v>
+        <v>3872544910.924994</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1457934057724471</v>
+        <v>0.13493013459523</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01958524780518768</v>
+        <v>0.02663565232207963</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>67</v>
+      </c>
+      <c r="J27" t="n">
+        <v>169</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2516971733.588054</v>
+        <v>2977110503.929166</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1522170896055042</v>
+        <v>0.1183038542723745</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03288895878025709</v>
+        <v>0.04770363359908705</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>32</v>
+      </c>
+      <c r="J28" t="n">
+        <v>167</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1454,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5726286250.034883</v>
+        <v>5583130520.566602</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1139132458910126</v>
+        <v>0.1227133208531516</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03073794783207265</v>
+        <v>0.0344601218806093</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>158</v>
+      </c>
+      <c r="J29" t="n">
+        <v>169</v>
+      </c>
+      <c r="K29" t="n">
+        <v>151.6711470977501</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2166653519.259809</v>
+        <v>2166832756.019094</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08651131674648758</v>
+        <v>0.1292015858904342</v>
       </c>
       <c r="G30" t="n">
-        <v>0.025829737661641</v>
+        <v>0.03603692452850383</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1006233515.37578</v>
+        <v>932932326.4882971</v>
       </c>
       <c r="F31" t="n">
-        <v>0.070104903352671</v>
+        <v>0.1023591757001914</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03905214385405736</v>
+        <v>0.05100827495615971</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1555,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1474952450.544595</v>
+        <v>1419418158.858169</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1045354493068004</v>
+        <v>0.08045660701763196</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0332632703095045</v>
+        <v>0.02660218004127309</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>1881068996.414368</v>
+        <v>2864690447.678282</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1736807640500036</v>
+        <v>0.1686436746418284</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05837478328709889</v>
+        <v>0.04290706321031536</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1184675753.916045</v>
+        <v>976959744.5135369</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1101600477010343</v>
+        <v>0.107103853018053</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02050209382065041</v>
+        <v>0.01868932869032199</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1660,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>820977137.2607107</v>
+        <v>1162309634.399686</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08584332293901102</v>
+        <v>0.07626954918792983</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02821486175272132</v>
+        <v>0.0281402655637782</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2827898028.841411</v>
+        <v>2778892807.547038</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1112568281759962</v>
+        <v>0.1715991128772893</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02090859919287459</v>
+        <v>0.02850005706181072</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1736,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1979910902.28176</v>
+        <v>2662600653.81933</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08385446640647962</v>
+        <v>0.08089748977106288</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02663530690255006</v>
+        <v>0.03950808489616543</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1771,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2109193343.500567</v>
+        <v>1551778007.238214</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1011792252870274</v>
+        <v>0.0945906861663742</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03453594833854171</v>
+        <v>0.03173233828007301</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1642591459.154629</v>
+        <v>1949215226.323718</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1836442294224027</v>
+        <v>0.1865426365750974</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02960323711682709</v>
+        <v>0.02626476725556812</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1626634402.476839</v>
+        <v>1215796446.847824</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1565707249786285</v>
+        <v>0.1044068464815493</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0447034461008492</v>
+        <v>0.03734885142137735</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1578,17 +1876,24 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2030813595.587982</v>
+        <v>2355961656.229952</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1042358587682774</v>
+        <v>0.1072048395899686</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03747089635267611</v>
+        <v>0.03536077655440944</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1911,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3827465008.020825</v>
+        <v>3395046341.646439</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1010940672150496</v>
+        <v>0.1214244111355627</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04437010241738569</v>
+        <v>0.03645320881505246</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>63</v>
+      </c>
+      <c r="J42" t="n">
+        <v>166</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2834084841.599019</v>
+        <v>2530630330.387137</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1797508339539546</v>
+        <v>0.1746817418557839</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01728494096728187</v>
+        <v>0.01987548073130625</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2087473914.916922</v>
+        <v>2358450771.405014</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07169479637975067</v>
+        <v>0.06695115568454492</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02532390298758225</v>
+        <v>0.03058734280191043</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2305652284.392202</v>
+        <v>2183767495.285886</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1429397751240225</v>
+        <v>0.1637065810784285</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05267154112103505</v>
+        <v>0.04438549848215686</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2051,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3789113789.27306</v>
+        <v>4769667963.571938</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1127135196391084</v>
+        <v>0.1287859307444283</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03783619342057717</v>
+        <v>0.04964258838281311</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>95</v>
+      </c>
+      <c r="J46" t="n">
+        <v>169</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2080,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4049241477.829165</v>
+        <v>4962566179.632377</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1941305062288581</v>
+        <v>0.1265767446880619</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04267251374398651</v>
+        <v>0.03908363044584982</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>75</v>
+      </c>
+      <c r="J47" t="n">
+        <v>168</v>
+      </c>
+      <c r="K47" t="n">
+        <v>107.4484464426989</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2117,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4482491682.798085</v>
+        <v>2992400961.019121</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07197676864473672</v>
+        <v>0.1058335908279495</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02811500852964981</v>
+        <v>0.03339469208846952</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>77</v>
+      </c>
+      <c r="J48" t="n">
+        <v>168</v>
+      </c>
+      <c r="K48" t="n">
+        <v>71.49296421669247</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1627273231.826921</v>
+        <v>1918113683.629292</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1925389212889956</v>
+        <v>0.1508220619967621</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02754146813176229</v>
+        <v>0.03618432173909051</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3440831429.969073</v>
+        <v>2891780040.408795</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1127418539808623</v>
+        <v>0.1363404752991779</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03306846232889697</v>
+        <v>0.03250206955002446</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>55</v>
+      </c>
+      <c r="J50" t="n">
+        <v>163</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1262199524.871328</v>
+        <v>1149107530.726989</v>
       </c>
       <c r="F51" t="n">
-        <v>0.137564966881411</v>
+        <v>0.1928676295362651</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0458977322448105</v>
+        <v>0.03297458166483263</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2265,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4482815290.928672</v>
+        <v>4544581753.991363</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08850427705701266</v>
+        <v>0.08930697055644364</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04772784960921022</v>
+        <v>0.03752692190218643</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>120</v>
+      </c>
+      <c r="J52" t="n">
+        <v>169</v>
+      </c>
+      <c r="K52" t="n">
+        <v>133.4087528454835</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2296,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3447379343.835527</v>
+        <v>2364125800.508272</v>
       </c>
       <c r="F53" t="n">
-        <v>0.203334841237166</v>
+        <v>0.1325542303381639</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03528414528148787</v>
+        <v>0.0295359659595755</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>22</v>
+      </c>
+      <c r="J53" t="n">
+        <v>168</v>
+      </c>
+      <c r="K53" t="n">
+        <v>40.62153055715947</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +2339,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4191218745.464189</v>
+        <v>3490247504.769836</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1486218671175238</v>
+        <v>0.1290321285398085</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03461430918321856</v>
+        <v>0.04877640892960573</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>83</v>
+      </c>
+      <c r="J54" t="n">
+        <v>168</v>
+      </c>
+      <c r="K54" t="n">
+        <v>98.59453766954705</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2370,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3313267418.694851</v>
+        <v>4770131327.949029</v>
       </c>
       <c r="F55" t="n">
-        <v>0.189114591256134</v>
+        <v>0.1590619864404129</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02371654090429215</v>
+        <v>0.02391147000398823</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>77</v>
+      </c>
+      <c r="J55" t="n">
+        <v>168</v>
+      </c>
+      <c r="K55" t="n">
+        <v>125.7116552264249</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2413,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1618821691.891367</v>
+        <v>1690474534.265719</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1177813471475221</v>
+        <v>0.1526391955335367</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03967186819141564</v>
+        <v>0.05767410290306843</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2448,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2942781573.307744</v>
+        <v>3313375511.283504</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1662673598496429</v>
+        <v>0.1729877333982028</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02741001423889623</v>
+        <v>0.02357702483646093</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>69</v>
+      </c>
+      <c r="J57" t="n">
+        <v>168</v>
+      </c>
+      <c r="K57" t="n">
+        <v>84.16500634053645</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2479,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1450689942.159751</v>
+        <v>1660844420.515292</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1829046925562679</v>
+        <v>0.1349179078586659</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02516327739654808</v>
+        <v>0.03513796147935087</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2520,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4125581433.648639</v>
+        <v>4235315176.749075</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09750504253727157</v>
+        <v>0.117110948628535</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03709300608271532</v>
+        <v>0.03936257742171122</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>81</v>
+      </c>
+      <c r="J59" t="n">
+        <v>169</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2549,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2323359100.280215</v>
+        <v>3222518288.164052</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1487412615699303</v>
+        <v>0.1793728981823843</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0286757592661456</v>
+        <v>0.03182254595246554</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>25</v>
+      </c>
+      <c r="J60" t="n">
+        <v>160</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2590,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3046706362.295393</v>
+        <v>2497715400.903124</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1335771613351409</v>
+        <v>0.1264171251570801</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03207016905389264</v>
+        <v>0.03061595305034759</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>5</v>
+      </c>
+      <c r="J61" t="n">
+        <v>158</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2625,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1681872641.26552</v>
+        <v>2109673591.879671</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1896648010304188</v>
+        <v>0.1487385639583789</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04368285934193289</v>
+        <v>0.04249488317494413</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4072798635.516896</v>
+        <v>3570441564.389243</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09298744177501304</v>
+        <v>0.08064625093241271</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02912323585979625</v>
+        <v>0.04254330688162292</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>83</v>
+      </c>
+      <c r="J63" t="n">
+        <v>168</v>
+      </c>
+      <c r="K63" t="n">
+        <v>92.52454453054261</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2691,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4298569747.029065</v>
+        <v>4978404407.024439</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1846427960720066</v>
+        <v>0.1196798849337849</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03535841262349376</v>
+        <v>0.02418171608959689</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>83</v>
+      </c>
+      <c r="J64" t="n">
+        <v>169</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,17 +2732,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4221707447.641631</v>
+        <v>3734143307.591526</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1113548825840637</v>
+        <v>0.1600267697817566</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02193776917752897</v>
+        <v>0.02058688449468514</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>139</v>
+      </c>
+      <c r="J65" t="n">
+        <v>169</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3818952729.249303</v>
+        <v>3640051297.782762</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1285283407725452</v>
+        <v>0.1049794688484678</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03474943976539731</v>
+        <v>0.03107030741894474</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>83</v>
+      </c>
+      <c r="J66" t="n">
+        <v>167</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3294218278.781221</v>
+        <v>3073468081.942204</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07282547568175404</v>
+        <v>0.07371721239576841</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03918029916910376</v>
+        <v>0.04045569020005246</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>157</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4678412362.538058</v>
+        <v>4662905688.707098</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1012960409872413</v>
+        <v>0.1383997837467499</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03494477239349164</v>
+        <v>0.04733375820861298</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>85</v>
+      </c>
+      <c r="J68" t="n">
+        <v>168</v>
+      </c>
+      <c r="K68" t="n">
+        <v>125.6581616662383</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1751512535.172353</v>
+        <v>1622739380.87952</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1303171993399024</v>
+        <v>0.1523371553361158</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04827957130243777</v>
+        <v>0.04288421141914452</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2331984356.625319</v>
+        <v>2609620153.026511</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08380048656066325</v>
+        <v>0.09694768764420773</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04797646329336169</v>
+        <v>0.0320637552456303</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>25</v>
+      </c>
+      <c r="J70" t="n">
+        <v>167</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4836838098.020876</v>
+        <v>5097475637.69899</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1825896164371089</v>
+        <v>0.135964394668502</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02149533369062517</v>
+        <v>0.02838048911707785</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>133</v>
+      </c>
+      <c r="J71" t="n">
+        <v>169</v>
+      </c>
+      <c r="K71" t="n">
+        <v>132.5037408775928</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1426525091.322838</v>
+        <v>1694060150.622792</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07277144890935776</v>
+        <v>0.07316413800185957</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05041112369982179</v>
+        <v>0.05276294868192015</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2393241185.412034</v>
+        <v>2619571358.762722</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1066255568117518</v>
+        <v>0.1059516609696116</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04886031938487392</v>
+        <v>0.04374852099561709</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>10</v>
+      </c>
+      <c r="J73" t="n">
+        <v>134</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3899754673.322045</v>
+        <v>3855082048.61797</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1320646175340886</v>
+        <v>0.1254263620996076</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02219536696336183</v>
+        <v>0.0335011211518217</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>49</v>
+      </c>
+      <c r="J74" t="n">
+        <v>169</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1713686046.003753</v>
+        <v>2172496999.834268</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1184062909051521</v>
+        <v>0.1634689702470538</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02355234648393165</v>
+        <v>0.02566484130758709</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3121,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4665094036.849856</v>
+        <v>3673255387.829617</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1160181671582855</v>
+        <v>0.09776951749609701</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02515477572794689</v>
+        <v>0.03390734128761781</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>77</v>
+      </c>
+      <c r="J76" t="n">
+        <v>167</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1786714432.989994</v>
+        <v>2130801211.19972</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1481403197260148</v>
+        <v>0.175491571511247</v>
       </c>
       <c r="G77" t="n">
-        <v>0.022471321261759</v>
+        <v>0.02428288111011473</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,16 +3191,25 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3288733019.192668</v>
+        <v>3714561075.183485</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1113582079116672</v>
+        <v>0.09188890850342646</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04797276068589811</v>
+        <v>0.05464799554068209</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>85</v>
+      </c>
+      <c r="J78" t="n">
+        <v>168</v>
+      </c>
+      <c r="K78" t="n">
+        <v>111.4345135129993</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1160403418.731672</v>
+        <v>1705637780.653203</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1210551932211241</v>
+        <v>0.1322647484676381</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02867531506654573</v>
+        <v>0.03420907169093095</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3263,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4319995847.913722</v>
+        <v>3754962525.614507</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06963664800446771</v>
+        <v>0.1062114558419482</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02781489728502056</v>
+        <v>0.03710666783812293</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>82</v>
+      </c>
+      <c r="J80" t="n">
+        <v>169</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3292,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3497811396.352064</v>
+        <v>3981514695.958738</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08960626425703801</v>
+        <v>0.13511943691082</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0266393263657866</v>
+        <v>0.0244543102390715</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>77</v>
+      </c>
+      <c r="J81" t="n">
+        <v>169</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4388490652.383015</v>
+        <v>5621863098.211145</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2111746249976025</v>
+        <v>0.2169460034160483</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01786510474320316</v>
+        <v>0.02463265386216014</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>124</v>
+      </c>
+      <c r="J82" t="n">
+        <v>169</v>
+      </c>
+      <c r="K82" t="n">
+        <v>140.5884294016552</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2126782804.536518</v>
+        <v>2381471724.534785</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1557725794601372</v>
+        <v>0.1013425949493118</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0418394326946129</v>
+        <v>0.02997122587150321</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2462279798.159674</v>
+        <v>2284988012.983402</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09056596828682818</v>
+        <v>0.1191595669397862</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04751965619198561</v>
+        <v>0.03906109335292566</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3434,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2671963041.727985</v>
+        <v>3415205002.323808</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1846535088367237</v>
+        <v>0.1134933995484351</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04066904437645578</v>
+        <v>0.04693518141206517</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>26</v>
+      </c>
+      <c r="J85" t="n">
+        <v>168</v>
+      </c>
+      <c r="K85" t="n">
+        <v>99.20351272287056</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2578900277.719824</v>
+        <v>1735613131.722916</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1485538774291714</v>
+        <v>0.1374334673524412</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02587533718737728</v>
+        <v>0.02258544895675281</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1439844754.569673</v>
+        <v>1331779445.804148</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1882830882446378</v>
+        <v>0.1545427190397936</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04410898441457151</v>
+        <v>0.03429075876636497</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2823798443.477915</v>
+        <v>3446820590.924705</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1727255121124769</v>
+        <v>0.1694157717761816</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03491047149966343</v>
+        <v>0.03519728942985246</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>23</v>
+      </c>
+      <c r="J88" t="n">
+        <v>157</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2640860254.768332</v>
+        <v>2583954304.182325</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1423499836219247</v>
+        <v>0.1144366638856266</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03378791882271752</v>
+        <v>0.02630979206725723</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>13</v>
+      </c>
+      <c r="J89" t="n">
+        <v>152</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1950344909.32831</v>
+        <v>2133531939.068469</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08931245702116312</v>
+        <v>0.1280446399645206</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04263358490132461</v>
+        <v>0.05007047349827546</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1701779435.381155</v>
+        <v>2054473177.317294</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1202477613063765</v>
+        <v>0.1328308922811788</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05088221562871688</v>
+        <v>0.05858924564100816</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2195459298.525191</v>
+        <v>2150492787.803628</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07812920369933538</v>
+        <v>0.07939344049129522</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04280436018931793</v>
+        <v>0.03143765260675658</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3596222050.635897</v>
+        <v>4400195812.814288</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1111713805670691</v>
+        <v>0.1253865737772615</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05418438260295607</v>
+        <v>0.0338837834029331</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>76</v>
+      </c>
+      <c r="J93" t="n">
+        <v>168</v>
+      </c>
+      <c r="K93" t="n">
+        <v>124.1650119196628</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1521047985.072054</v>
+        <v>1741010693.083598</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1253828657350018</v>
+        <v>0.1576757664246421</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03282274213195583</v>
+        <v>0.02773156424531106</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2809702606.044645</v>
+        <v>2222687789.515899</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08405749130615442</v>
+        <v>0.1249746569284537</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0364237967896568</v>
+        <v>0.04395978316310673</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1974360158.629979</v>
+        <v>1914562020.582498</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09329847456772185</v>
+        <v>0.09949772320311236</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04275028928194561</v>
+        <v>0.04268792233436014</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4025925949.316728</v>
+        <v>4039267357.209118</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1178723875316777</v>
+        <v>0.1474939468681621</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02377655033990594</v>
+        <v>0.02522282403354271</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>81</v>
+      </c>
+      <c r="J97" t="n">
+        <v>169</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2437968105.253354</v>
+        <v>3685540403.726368</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1082737918557667</v>
+        <v>0.08528898102175342</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02944202269043071</v>
+        <v>0.02298809948111761</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>40</v>
+      </c>
+      <c r="J98" t="n">
+        <v>169</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2469168078.571898</v>
+        <v>2803801386.863514</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1043217380731023</v>
+        <v>0.1311203785918084</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02973937249861585</v>
+        <v>0.02826045552932574</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>135</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3299936170.874128</v>
+        <v>2973270621.908084</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1466195609412601</v>
+        <v>0.1189837634490185</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01898229240621424</v>
+        <v>0.02784127577295064</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>71</v>
+      </c>
+      <c r="J100" t="n">
+        <v>168</v>
+      </c>
+      <c r="K100" t="n">
+        <v>65.48403071719162</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3533237078.833778</v>
+        <v>3574388835.104395</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1567204545588556</v>
+        <v>0.1400592533034869</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05179453615600358</v>
+        <v>0.04405975868355176</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>15</v>
+      </c>
+      <c r="J101" t="n">
+        <v>167</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
